--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 37_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 37_it_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/DocumentenLaptop/Programming/Github/DanielNoord/ProjectInventarisGezantschappen/inputs/VolumesExcel_06_07_2022/it_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_E56FD9694AD2D6FF93E1951545B3B6FE5F20CF37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF3EF00-A1CC-A446-8F98-73340AAEF68D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3713CE-015E-C84E-B8A9-169416D5B2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="654">
   <si>
     <t>ms312_title</t>
   </si>
@@ -1668,9 +1668,6 @@
     <t>ms312_32_4_423h</t>
   </si>
   <si>
-    <t>ms312_32_4_424</t>
-  </si>
-  <si>
     <t>ms312_32_4_425</t>
   </si>
   <si>
@@ -1963,6 +1960,30 @@
   </si>
   <si>
     <t>Divergenze fra i due governi sull'organizzazione della Chiesa cattolica nei Paesi Bassi</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424a</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424b</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424c</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424d</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424e</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424f</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424g</t>
+  </si>
+  <si>
+    <t>ms312_32_4_424h</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -2042,7 +2063,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2063,9 +2083,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2103,9 +2123,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2138,26 +2158,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,26 +2193,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2383,20 +2369,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N606"/>
+  <dimension ref="A1:N613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="86.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="54" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="54" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2433,11 +2419,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C4">
         <v>1853</v>
@@ -2447,18 +2433,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -2484,7 +2470,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2492,7 +2478,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8">
@@ -2518,7 +2504,7 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2526,7 +2512,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C10">
@@ -2552,7 +2538,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C11">
@@ -2578,7 +2564,7 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C12">
@@ -2604,7 +2590,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C13">
@@ -2630,7 +2616,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C14">
@@ -2656,7 +2642,7 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2664,7 +2650,7 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C16">
@@ -2690,7 +2676,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2698,7 +2684,7 @@
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18">
@@ -2724,7 +2710,7 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2732,7 +2718,7 @@
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C20">
@@ -2758,7 +2744,7 @@
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2766,7 +2752,7 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C22">
@@ -2792,7 +2778,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C23">
@@ -2818,7 +2804,7 @@
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C24">
@@ -2844,7 +2830,7 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25">
@@ -2870,7 +2856,7 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C26">
@@ -2896,7 +2882,7 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C27">
@@ -2922,7 +2908,7 @@
       <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C28">
@@ -2936,7 +2922,7 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C29">
@@ -2950,7 +2936,7 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C30">
@@ -2964,7 +2950,7 @@
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C31">
@@ -2978,7 +2964,7 @@
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C32">
@@ -2992,7 +2978,7 @@
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C33">
@@ -3006,7 +2992,7 @@
       <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C34">
@@ -3020,7 +3006,7 @@
       <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C35">
@@ -3034,7 +3020,7 @@
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C36">
@@ -3048,7 +3034,7 @@
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C37">
@@ -3062,7 +3048,7 @@
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C38">
@@ -3076,7 +3062,7 @@
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C39">
@@ -3090,7 +3076,7 @@
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C40">
@@ -3104,7 +3090,7 @@
       <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C41">
@@ -3118,7 +3104,7 @@
       <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -3132,7 +3118,7 @@
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C43">
@@ -3146,7 +3132,7 @@
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C44">
@@ -3160,7 +3146,7 @@
       <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C45">
@@ -3174,7 +3160,7 @@
       <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C46">
@@ -3188,7 +3174,7 @@
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C47">
@@ -3202,7 +3188,7 @@
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C48">
@@ -3216,7 +3202,7 @@
       <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C49">
@@ -3230,7 +3216,7 @@
       <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C50">
@@ -3256,7 +3242,7 @@
       <c r="A51" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3264,7 +3250,7 @@
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C52">
@@ -3281,7 +3267,7 @@
       <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C53">
@@ -3298,7 +3284,7 @@
       <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3306,7 +3292,7 @@
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C55">
@@ -3326,7 +3312,7 @@
       <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C56">
@@ -3346,7 +3332,7 @@
       <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C57">
@@ -3372,7 +3358,7 @@
       <c r="A58" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3380,7 +3366,7 @@
       <c r="A59" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C59">
@@ -3406,7 +3392,7 @@
       <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3414,7 +3400,7 @@
       <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C61">
@@ -3440,7 +3426,7 @@
       <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C62">
@@ -3466,7 +3452,7 @@
       <c r="A63" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C63">
@@ -3492,7 +3478,7 @@
       <c r="A64" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3500,7 +3486,7 @@
       <c r="A65" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C65">
@@ -3526,7 +3512,7 @@
       <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C66">
@@ -3552,7 +3538,7 @@
       <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C67">
@@ -3578,7 +3564,7 @@
       <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C68">
@@ -3604,7 +3590,7 @@
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C69">
@@ -3615,7 +3601,7 @@
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C70">
@@ -3626,7 +3612,7 @@
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C71">
@@ -3637,7 +3623,7 @@
       <c r="A72" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C72">
@@ -3648,7 +3634,7 @@
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C73">
@@ -3659,7 +3645,7 @@
       <c r="A74" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C74">
@@ -3670,7 +3656,7 @@
       <c r="A75" t="s">
         <v>95</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C75">
@@ -3681,7 +3667,7 @@
       <c r="A76" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C76">
@@ -3692,7 +3678,7 @@
       <c r="A77" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C77">
@@ -3718,7 +3704,7 @@
       <c r="A78" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C78">
@@ -3729,7 +3715,7 @@
       <c r="A79" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C79">
@@ -3752,7 +3738,7 @@
       <c r="A80" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C80">
@@ -3775,7 +3761,7 @@
       <c r="A81" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C81">
@@ -3798,7 +3784,7 @@
       <c r="A82" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C82">
@@ -3821,7 +3807,7 @@
       <c r="A83" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C83">
@@ -3844,7 +3830,7 @@
       <c r="A84" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C84">
@@ -3867,7 +3853,7 @@
       <c r="A85" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C85">
@@ -3890,7 +3876,7 @@
       <c r="A86" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C86">
@@ -3913,7 +3899,7 @@
       <c r="A87" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C87">
@@ -3936,7 +3922,7 @@
       <c r="A88" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C88">
@@ -3959,7 +3945,7 @@
       <c r="A89" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C89">
@@ -3982,7 +3968,7 @@
       <c r="A90" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C90">
@@ -4005,7 +3991,7 @@
       <c r="A91" t="s">
         <v>113</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C91">
@@ -4028,7 +4014,7 @@
       <c r="A92" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C92">
@@ -4051,7 +4037,7 @@
       <c r="A93" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C93">
@@ -4074,7 +4060,7 @@
       <c r="A94" t="s">
         <v>116</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4082,7 +4068,7 @@
       <c r="A95" t="s">
         <v>117</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C95">
@@ -4108,7 +4094,7 @@
       <c r="A96" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C96">
@@ -4134,7 +4120,7 @@
       <c r="A97" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C97">
@@ -4160,7 +4146,7 @@
       <c r="A98" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C98">
@@ -4171,7 +4157,7 @@
       <c r="A99" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C99">
@@ -4197,7 +4183,7 @@
       <c r="A100" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C100">
@@ -4223,7 +4209,7 @@
       <c r="A101" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C101">
@@ -4249,7 +4235,7 @@
       <c r="A102" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C102">
@@ -4260,7 +4246,7 @@
       <c r="A103" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C103">
@@ -4286,7 +4272,7 @@
       <c r="A104" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C104">
@@ -4312,7 +4298,7 @@
       <c r="A105" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C105">
@@ -4338,7 +4324,7 @@
       <c r="A106" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4346,7 +4332,7 @@
       <c r="A107" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C107">
@@ -4369,7 +4355,7 @@
       <c r="A108" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C108">
@@ -4392,7 +4378,7 @@
       <c r="A109" t="s">
         <v>140</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C109">
@@ -4415,7 +4401,7 @@
       <c r="A110" t="s">
         <v>141</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C110">
@@ -4438,7 +4424,7 @@
       <c r="A111" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C111">
@@ -4461,7 +4447,7 @@
       <c r="A112" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C112">
@@ -4484,7 +4470,7 @@
       <c r="A113" t="s">
         <v>144</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C113">
@@ -4507,7 +4493,7 @@
       <c r="A114" t="s">
         <v>145</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C114">
@@ -4530,7 +4516,7 @@
       <c r="A115" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C115">
@@ -4553,7 +4539,7 @@
       <c r="A116" t="s">
         <v>147</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C116">
@@ -4576,7 +4562,7 @@
       <c r="A117" t="s">
         <v>148</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C117">
@@ -4599,7 +4585,7 @@
       <c r="A118" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C118">
@@ -4622,7 +4608,7 @@
       <c r="A119" t="s">
         <v>150</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C119">
@@ -4645,7 +4631,7 @@
       <c r="A120" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C120">
@@ -4659,7 +4645,7 @@
       <c r="A121" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C121">
@@ -4685,7 +4671,7 @@
       <c r="A122" t="s">
         <v>153</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4693,7 +4679,7 @@
       <c r="A123" t="s">
         <v>154</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C123">
@@ -4719,7 +4705,7 @@
       <c r="A124" t="s">
         <v>157</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C124">
@@ -4745,7 +4731,7 @@
       <c r="A125" t="s">
         <v>158</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C125">
@@ -4762,7 +4748,7 @@
       <c r="A126" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C126">
@@ -4779,7 +4765,7 @@
       <c r="A127" t="s">
         <v>161</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C127">
@@ -4796,7 +4782,7 @@
       <c r="A128" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C128">
@@ -4813,7 +4799,7 @@
       <c r="A129" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C129">
@@ -4839,7 +4825,7 @@
       <c r="A130" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C130">
@@ -4865,7 +4851,7 @@
       <c r="A131" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C131">
@@ -4891,7 +4877,7 @@
       <c r="A132" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4899,7 +4885,7 @@
       <c r="A133" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C133">
@@ -4925,7 +4911,7 @@
       <c r="A134" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C134">
@@ -4951,7 +4937,7 @@
       <c r="A135" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C135">
@@ -4977,7 +4963,7 @@
       <c r="A136" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4985,7 +4971,7 @@
       <c r="A137" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C137">
@@ -4999,7 +4985,7 @@
       <c r="A138" t="s">
         <v>175</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C138">
@@ -5013,7 +4999,7 @@
       <c r="A139" t="s">
         <v>176</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C139">
@@ -5039,7 +5025,7 @@
       <c r="A140" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C140">
@@ -5065,7 +5051,7 @@
       <c r="A141" t="s">
         <v>178</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C141">
@@ -5091,7 +5077,7 @@
       <c r="A142" t="s">
         <v>179</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C142">
@@ -5117,7 +5103,7 @@
       <c r="A143" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C143">
@@ -5140,7 +5126,7 @@
       <c r="A144" t="s">
         <v>184</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C144">
@@ -5163,7 +5149,7 @@
       <c r="A145" t="s">
         <v>185</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C145">
@@ -5186,7 +5172,7 @@
       <c r="A146" t="s">
         <v>186</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5194,7 +5180,7 @@
       <c r="A147" t="s">
         <v>187</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C147">
@@ -5220,7 +5206,7 @@
       <c r="A148" t="s">
         <v>190</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C148">
@@ -5246,7 +5232,7 @@
       <c r="A149" t="s">
         <v>191</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C149">
@@ -5257,7 +5243,7 @@
       <c r="A150" t="s">
         <v>193</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C150">
@@ -5268,7 +5254,7 @@
       <c r="A151" t="s">
         <v>194</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C151">
@@ -5279,7 +5265,7 @@
       <c r="A152" t="s">
         <v>195</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C152">
@@ -5290,7 +5276,7 @@
       <c r="A153" t="s">
         <v>197</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C153">
@@ -5301,7 +5287,7 @@
       <c r="A154" t="s">
         <v>199</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C154">
@@ -5327,7 +5313,7 @@
       <c r="A155" t="s">
         <v>201</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5335,7 +5321,7 @@
       <c r="A156" t="s">
         <v>202</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C156">
@@ -5361,7 +5347,7 @@
       <c r="A157" t="s">
         <v>204</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C157">
@@ -5387,7 +5373,7 @@
       <c r="A158" t="s">
         <v>205</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C158">
@@ -5413,7 +5399,7 @@
       <c r="A159" t="s">
         <v>206</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C159">
@@ -5439,7 +5425,7 @@
       <c r="A160" t="s">
         <v>207</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C160">
@@ -5465,7 +5451,7 @@
       <c r="A161" t="s">
         <v>208</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C161">
@@ -5491,7 +5477,7 @@
       <c r="A162" t="s">
         <v>209</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C162">
@@ -5517,7 +5503,7 @@
       <c r="A163" t="s">
         <v>210</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C163">
@@ -5543,7 +5529,7 @@
       <c r="A164" t="s">
         <v>211</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C164">
@@ -5569,7 +5555,7 @@
       <c r="A165" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C165">
@@ -5595,7 +5581,7 @@
       <c r="A166" t="s">
         <v>213</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C166">
@@ -5621,7 +5607,7 @@
       <c r="A167" t="s">
         <v>214</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C167">
@@ -5647,7 +5633,7 @@
       <c r="A168" t="s">
         <v>215</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C168">
@@ -5673,7 +5659,7 @@
       <c r="A169" t="s">
         <v>216</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C169">
@@ -5699,7 +5685,7 @@
       <c r="A170" t="s">
         <v>217</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C170">
@@ -5725,7 +5711,7 @@
       <c r="A171" t="s">
         <v>219</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C171">
@@ -5751,7 +5737,7 @@
       <c r="A172" t="s">
         <v>220</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C172">
@@ -5774,7 +5760,7 @@
       <c r="A173" t="s">
         <v>223</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C173">
@@ -5794,7 +5780,7 @@
       <c r="A174" t="s">
         <v>224</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C174">
@@ -5814,7 +5800,7 @@
       <c r="A175" t="s">
         <v>225</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C175">
@@ -5834,7 +5820,7 @@
       <c r="A176" t="s">
         <v>226</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C176">
@@ -5854,7 +5840,7 @@
       <c r="A177" t="s">
         <v>227</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C177">
@@ -5874,7 +5860,7 @@
       <c r="A178" t="s">
         <v>228</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C178">
@@ -5894,7 +5880,7 @@
       <c r="A179" t="s">
         <v>229</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5902,7 +5888,7 @@
       <c r="A180" t="s">
         <v>230</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C180">
@@ -5928,7 +5914,7 @@
       <c r="A181" t="s">
         <v>231</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C181">
@@ -5939,7 +5925,7 @@
       <c r="A182" t="s">
         <v>232</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C182">
@@ -5965,7 +5951,7 @@
       <c r="A183" t="s">
         <v>233</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5973,7 +5959,7 @@
       <c r="A184" t="s">
         <v>234</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C184">
@@ -5999,7 +5985,7 @@
       <c r="A185" t="s">
         <v>236</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C185">
@@ -6025,7 +6011,7 @@
       <c r="A186" t="s">
         <v>237</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C186">
@@ -6051,7 +6037,7 @@
       <c r="A187" t="s">
         <v>238</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C187">
@@ -6077,7 +6063,7 @@
       <c r="A188" t="s">
         <v>239</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C188">
@@ -6103,7 +6089,7 @@
       <c r="A189" t="s">
         <v>242</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6111,7 +6097,7 @@
       <c r="A190" t="s">
         <v>243</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C190">
@@ -6137,7 +6123,7 @@
       <c r="A191" t="s">
         <v>244</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6145,7 +6131,7 @@
       <c r="A192" t="s">
         <v>245</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C192">
@@ -6171,7 +6157,7 @@
       <c r="A193" t="s">
         <v>246</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C193">
@@ -6197,7 +6183,7 @@
       <c r="A194" t="s">
         <v>249</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C194">
@@ -6223,7 +6209,7 @@
       <c r="A195" t="s">
         <v>250</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C195">
@@ -6249,7 +6235,7 @@
       <c r="A196" t="s">
         <v>251</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C196">
@@ -6298,7 +6284,7 @@
       <c r="A198" t="s">
         <v>254</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C198">
@@ -6324,7 +6310,7 @@
       <c r="A199" t="s">
         <v>255</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C199">
@@ -6350,7 +6336,7 @@
       <c r="A200" t="s">
         <v>256</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C200">
@@ -6376,7 +6362,7 @@
       <c r="A201" t="s">
         <v>259</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6384,7 +6370,7 @@
       <c r="A202" t="s">
         <v>260</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C202">
@@ -6410,7 +6396,7 @@
       <c r="A203" t="s">
         <v>261</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C203">
@@ -6436,7 +6422,7 @@
       <c r="A204" t="s">
         <v>262</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C204">
@@ -6462,7 +6448,7 @@
       <c r="A205" t="s">
         <v>263</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C205">
@@ -6488,7 +6474,7 @@
       <c r="A206" t="s">
         <v>264</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C206">
@@ -6514,7 +6500,7 @@
       <c r="A207" t="s">
         <v>265</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6522,7 +6508,7 @@
       <c r="A208" t="s">
         <v>266</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C208">
@@ -6542,7 +6528,7 @@
       <c r="A209" t="s">
         <v>268</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C209">
@@ -6562,7 +6548,7 @@
       <c r="A210" t="s">
         <v>269</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C210">
@@ -6582,7 +6568,7 @@
       <c r="A211" t="s">
         <v>270</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C211">
@@ -6602,7 +6588,7 @@
       <c r="A212" t="s">
         <v>271</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C212">
@@ -6622,7 +6608,7 @@
       <c r="A213" t="s">
         <v>272</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C213">
@@ -6642,7 +6628,7 @@
       <c r="A214" t="s">
         <v>273</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C214">
@@ -6662,7 +6648,7 @@
       <c r="A215" t="s">
         <v>274</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C215">
@@ -6682,7 +6668,7 @@
       <c r="A216" t="s">
         <v>275</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C216">
@@ -6702,7 +6688,7 @@
       <c r="A217" t="s">
         <v>276</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6710,7 +6696,7 @@
       <c r="A218" t="s">
         <v>277</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C218">
@@ -6736,7 +6722,7 @@
       <c r="A219" t="s">
         <v>278</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6744,7 +6730,7 @@
       <c r="A220" t="s">
         <v>279</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C220">
@@ -6770,7 +6756,7 @@
       <c r="A221" t="s">
         <v>280</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C221">
@@ -6781,7 +6767,7 @@
       <c r="A222" t="s">
         <v>281</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C222">
@@ -6807,7 +6793,7 @@
       <c r="A223" t="s">
         <v>282</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6815,7 +6801,7 @@
       <c r="A224" t="s">
         <v>283</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C224">
@@ -6841,7 +6827,7 @@
       <c r="A225" t="s">
         <v>284</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C225">
@@ -6867,7 +6853,7 @@
       <c r="A226" t="s">
         <v>285</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C226">
@@ -6893,7 +6879,7 @@
       <c r="A227" t="s">
         <v>286</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C227">
@@ -6919,7 +6905,7 @@
       <c r="A228" t="s">
         <v>287</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C228">
@@ -6945,7 +6931,7 @@
       <c r="A229" t="s">
         <v>288</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6953,7 +6939,7 @@
       <c r="A230" t="s">
         <v>289</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C230">
@@ -6979,7 +6965,7 @@
       <c r="A231" t="s">
         <v>290</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C231">
@@ -7005,7 +6991,7 @@
       <c r="A232" t="s">
         <v>291</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C232">
@@ -7031,7 +7017,7 @@
       <c r="A233" t="s">
         <v>292</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C233">
@@ -7057,7 +7043,7 @@
       <c r="A234" t="s">
         <v>293</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C234">
@@ -7083,7 +7069,7 @@
       <c r="A235" t="s">
         <v>294</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>295</v>
       </c>
       <c r="C235">
@@ -7106,7 +7092,7 @@
       <c r="A236" t="s">
         <v>297</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C236">
@@ -7117,7 +7103,7 @@
       <c r="A237" t="s">
         <v>298</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C237">
@@ -7134,7 +7120,7 @@
       <c r="A238" t="s">
         <v>299</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7142,7 +7128,7 @@
       <c r="A239" t="s">
         <v>300</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C239">
@@ -7168,7 +7154,7 @@
       <c r="A240" t="s">
         <v>301</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C240">
@@ -7194,7 +7180,7 @@
       <c r="A241" t="s">
         <v>302</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C241">
@@ -7220,7 +7206,7 @@
       <c r="A242" t="s">
         <v>303</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C242">
@@ -7246,7 +7232,7 @@
       <c r="A243" t="s">
         <v>304</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="9" t="s">
         <v>305</v>
       </c>
       <c r="C243">
@@ -7272,18 +7258,18 @@
       <c r="A244" t="s">
         <v>307</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="10"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>308</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C246">
@@ -7297,15 +7283,15 @@
       <c r="A247" t="s">
         <v>310</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>644</v>
+      <c r="B247" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>311</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C248">
@@ -7331,7 +7317,7 @@
       <c r="A249" t="s">
         <v>313</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C249">
@@ -7357,7 +7343,7 @@
       <c r="A250" t="s">
         <v>314</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C250">
@@ -7383,7 +7369,7 @@
       <c r="A251" t="s">
         <v>315</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7391,7 +7377,7 @@
       <c r="A252" t="s">
         <v>316</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C252">
@@ -7417,7 +7403,7 @@
       <c r="A253" t="s">
         <v>317</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C253">
@@ -7495,7 +7481,7 @@
       <c r="A256" t="s">
         <v>322</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C256">
@@ -7547,7 +7533,7 @@
       <c r="A258" t="s">
         <v>324</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C258">
@@ -7573,7 +7559,7 @@
       <c r="A259" t="s">
         <v>326</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C259">
@@ -7599,7 +7585,7 @@
       <c r="A260" t="s">
         <v>327</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C260">
@@ -7625,7 +7611,7 @@
       <c r="A261" t="s">
         <v>328</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C261">
@@ -7651,7 +7637,7 @@
       <c r="A262" t="s">
         <v>329</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C262">
@@ -7677,7 +7663,7 @@
       <c r="A263" t="s">
         <v>330</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C263">
@@ -7703,7 +7689,7 @@
       <c r="A264" t="s">
         <v>331</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C264">
@@ -7729,7 +7715,7 @@
       <c r="A265" t="s">
         <v>332</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C265">
@@ -7743,7 +7729,7 @@
       <c r="A266" t="s">
         <v>334</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C266">
@@ -7757,7 +7743,7 @@
       <c r="A267" t="s">
         <v>335</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C267">
@@ -7771,7 +7757,7 @@
       <c r="A268" t="s">
         <v>336</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C268">
@@ -7811,18 +7797,18 @@
       <c r="A270" t="s">
         <v>338</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="10"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>339</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C272">
@@ -7836,15 +7822,15 @@
       <c r="A273" t="s">
         <v>341</v>
       </c>
-      <c r="B273" s="10" t="s">
-        <v>643</v>
+      <c r="B273" s="9" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>342</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>343</v>
       </c>
       <c r="C274">
@@ -7870,7 +7856,7 @@
       <c r="A275" t="s">
         <v>344</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="9" t="s">
         <v>343</v>
       </c>
       <c r="C275">
@@ -8026,7 +8012,7 @@
       <c r="A281" t="s">
         <v>350</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8034,7 +8020,7 @@
       <c r="A282" t="s">
         <v>351</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C282">
@@ -8060,7 +8046,7 @@
       <c r="A283" t="s">
         <v>352</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8068,7 +8054,7 @@
       <c r="A284" t="s">
         <v>353</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C284">
@@ -8088,7 +8074,7 @@
       <c r="A285" t="s">
         <v>354</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C285">
@@ -8108,7 +8094,7 @@
       <c r="A286" t="s">
         <v>355</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C286">
@@ -8128,7 +8114,7 @@
       <c r="A287" t="s">
         <v>356</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C287">
@@ -8148,7 +8134,7 @@
       <c r="A288" t="s">
         <v>357</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C288">
@@ -8168,7 +8154,7 @@
       <c r="A289" t="s">
         <v>358</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C289">
@@ -8188,7 +8174,7 @@
       <c r="A290" t="s">
         <v>359</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C290">
@@ -8214,7 +8200,7 @@
       <c r="A291" t="s">
         <v>360</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C291">
@@ -8240,7 +8226,7 @@
       <c r="A292" t="s">
         <v>361</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C292">
@@ -8266,7 +8252,7 @@
       <c r="A293" t="s">
         <v>362</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8274,7 +8260,7 @@
       <c r="A294" t="s">
         <v>363</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C294">
@@ -8300,7 +8286,7 @@
       <c r="A295" t="s">
         <v>364</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C295">
@@ -8326,7 +8312,7 @@
       <c r="A296" t="s">
         <v>365</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C296">
@@ -8352,7 +8338,7 @@
       <c r="A297" t="s">
         <v>366</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C297">
@@ -8378,7 +8364,7 @@
       <c r="A298" t="s">
         <v>367</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C298">
@@ -8398,7 +8384,7 @@
       <c r="A299" t="s">
         <v>368</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8406,7 +8392,7 @@
       <c r="A300" t="s">
         <v>369</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="9" t="s">
         <v>370</v>
       </c>
       <c r="C300">
@@ -8429,7 +8415,7 @@
       <c r="A301" t="s">
         <v>371</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8437,7 +8423,7 @@
       <c r="A302" t="s">
         <v>372</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C302">
@@ -8463,7 +8449,7 @@
       <c r="A303" t="s">
         <v>373</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C303">
@@ -8474,7 +8460,7 @@
       <c r="A304" t="s">
         <v>374</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="9" t="s">
         <v>375</v>
       </c>
       <c r="C304">
@@ -8494,7 +8480,7 @@
       <c r="A305" t="s">
         <v>377</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="9" t="s">
         <v>375</v>
       </c>
       <c r="C305">
@@ -8514,7 +8500,7 @@
       <c r="A306" t="s">
         <v>378</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C306">
@@ -8540,7 +8526,7 @@
       <c r="A307" t="s">
         <v>379</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C307">
@@ -8566,7 +8552,7 @@
       <c r="A308" t="s">
         <v>380</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C308">
@@ -8592,7 +8578,7 @@
       <c r="A309" t="s">
         <v>381</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C309">
@@ -8618,7 +8604,7 @@
       <c r="A310" t="s">
         <v>382</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C310">
@@ -8644,7 +8630,7 @@
       <c r="A311" t="s">
         <v>383</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C311">
@@ -8670,7 +8656,7 @@
       <c r="A312" t="s">
         <v>384</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C312">
@@ -8696,7 +8682,7 @@
       <c r="A313" t="s">
         <v>385</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C313">
@@ -8722,7 +8708,7 @@
       <c r="A314" t="s">
         <v>386</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C314">
@@ -8748,7 +8734,7 @@
       <c r="A315" t="s">
         <v>387</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C315">
@@ -8774,7 +8760,7 @@
       <c r="A316" t="s">
         <v>388</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C316">
@@ -8788,7 +8774,7 @@
       <c r="A317" t="s">
         <v>390</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C317">
@@ -8802,7 +8788,7 @@
       <c r="A318" t="s">
         <v>391</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C318">
@@ -8816,7 +8802,7 @@
       <c r="A319" t="s">
         <v>392</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C319">
@@ -8830,7 +8816,7 @@
       <c r="A320" t="s">
         <v>393</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C320">
@@ -8856,7 +8842,7 @@
       <c r="A321" t="s">
         <v>395</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="9" t="s">
         <v>394</v>
       </c>
       <c r="C321">
@@ -8960,7 +8946,7 @@
       <c r="A325" t="s">
         <v>399</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C325">
@@ -8986,7 +8972,7 @@
       <c r="A326" t="s">
         <v>400</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8994,7 +8980,7 @@
       <c r="A327" t="s">
         <v>401</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C327">
@@ -9020,7 +9006,7 @@
       <c r="A328" t="s">
         <v>402</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9028,7 +9014,7 @@
       <c r="A329" t="s">
         <v>403</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="9" t="s">
         <v>404</v>
       </c>
       <c r="C329">
@@ -9048,7 +9034,7 @@
       <c r="A330" t="s">
         <v>405</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="9" t="s">
         <v>404</v>
       </c>
       <c r="C330">
@@ -9068,7 +9054,7 @@
       <c r="A331" t="s">
         <v>406</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="9" t="s">
         <v>407</v>
       </c>
       <c r="C331">
@@ -9094,7 +9080,7 @@
       <c r="A332" t="s">
         <v>409</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9102,7 +9088,7 @@
       <c r="A333" t="s">
         <v>410</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C333">
@@ -9128,7 +9114,7 @@
       <c r="A334" t="s">
         <v>411</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B334" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C334">
@@ -9154,7 +9140,7 @@
       <c r="A335" t="s">
         <v>412</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C335">
@@ -9180,7 +9166,7 @@
       <c r="A336" t="s">
         <v>413</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C336">
@@ -9206,7 +9192,7 @@
       <c r="A337" t="s">
         <v>414</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C337">
@@ -9232,7 +9218,7 @@
       <c r="A338" t="s">
         <v>415</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C338">
@@ -9258,7 +9244,7 @@
       <c r="A339" t="s">
         <v>416</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C339">
@@ -9284,7 +9270,7 @@
       <c r="A340" t="s">
         <v>417</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C340">
@@ -9298,7 +9284,7 @@
       <c r="A341" t="s">
         <v>420</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C341">
@@ -9312,7 +9298,7 @@
       <c r="A342" t="s">
         <v>421</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C342">
@@ -9326,7 +9312,7 @@
       <c r="A343" t="s">
         <v>422</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C343">
@@ -9340,7 +9326,7 @@
       <c r="A344" t="s">
         <v>423</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C344">
@@ -9354,7 +9340,7 @@
       <c r="A345" t="s">
         <v>424</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C345">
@@ -9368,7 +9354,7 @@
       <c r="A346" t="s">
         <v>425</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C346">
@@ -9391,7 +9377,7 @@
       <c r="A347" t="s">
         <v>427</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C347">
@@ -9414,7 +9400,7 @@
       <c r="A348" t="s">
         <v>428</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C348">
@@ -9437,7 +9423,7 @@
       <c r="A349" t="s">
         <v>429</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="9" t="s">
         <v>426</v>
       </c>
       <c r="C349">
@@ -9460,7 +9446,7 @@
       <c r="A350" t="s">
         <v>430</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C350">
@@ -9486,7 +9472,7 @@
       <c r="A351" t="s">
         <v>431</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C351">
@@ -9512,7 +9498,7 @@
       <c r="A352" t="s">
         <v>432</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="9" t="s">
         <v>433</v>
       </c>
       <c r="C352">
@@ -9526,7 +9512,7 @@
       <c r="A353" t="s">
         <v>434</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>433</v>
       </c>
       <c r="C353">
@@ -9618,7 +9604,7 @@
       <c r="A357" t="s">
         <v>438</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9626,7 +9612,7 @@
       <c r="A358" t="s">
         <v>439</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C358">
@@ -9652,7 +9638,7 @@
       <c r="A359" t="s">
         <v>440</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9660,7 +9646,7 @@
       <c r="A360" t="s">
         <v>441</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C360">
@@ -9686,7 +9672,7 @@
       <c r="A361" t="s">
         <v>442</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9850,7 +9836,7 @@
       <c r="A368" t="s">
         <v>449</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C368">
@@ -9861,7 +9847,7 @@
       <c r="A369" t="s">
         <v>450</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C369">
@@ -9887,7 +9873,7 @@
       <c r="A370" t="s">
         <v>451</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9895,7 +9881,7 @@
       <c r="A371" t="s">
         <v>452</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="9" t="s">
         <v>453</v>
       </c>
       <c r="C371">
@@ -9912,7 +9898,7 @@
       <c r="A372" t="s">
         <v>454</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="9" t="s">
         <v>453</v>
       </c>
       <c r="C372">
@@ -9929,7 +9915,7 @@
       <c r="A373" t="s">
         <v>455</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C373">
@@ -9955,7 +9941,7 @@
       <c r="A374" t="s">
         <v>456</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C374">
@@ -9977,11 +9963,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="375" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="11" t="s">
+    <row r="375" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C375">
@@ -9990,10 +9976,10 @@
       <c r="D375">
         <v>8</v>
       </c>
-      <c r="E375" s="11">
+      <c r="E375" s="10">
         <v>31</v>
       </c>
-      <c r="F375" s="11" t="s">
+      <c r="F375" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G375" t="s">
@@ -10003,11 +9989,11 @@
         <v>320</v>
       </c>
     </row>
-    <row r="376" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="11" t="s">
+    <row r="376" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C376">
@@ -10016,10 +10002,10 @@
       <c r="D376">
         <v>8</v>
       </c>
-      <c r="E376" s="11">
+      <c r="E376" s="10">
         <v>31</v>
       </c>
-      <c r="F376" s="11" t="s">
+      <c r="F376" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G376" t="s">
@@ -10033,7 +10019,7 @@
       <c r="A377" t="s">
         <v>459</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C377">
@@ -10059,7 +10045,7 @@
       <c r="A378" t="s">
         <v>460</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C378">
@@ -10085,7 +10071,7 @@
       <c r="A379" t="s">
         <v>461</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C379">
@@ -10111,7 +10097,7 @@
       <c r="A380" t="s">
         <v>462</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10119,7 +10105,7 @@
       <c r="A381" t="s">
         <v>463</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B381" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C381">
@@ -10136,7 +10122,7 @@
       <c r="A382" t="s">
         <v>464</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C382">
@@ -10153,7 +10139,7 @@
       <c r="A383" t="s">
         <v>466</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="B383" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C383">
@@ -10170,7 +10156,7 @@
       <c r="A384" t="s">
         <v>467</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B384" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C384">
@@ -10187,7 +10173,7 @@
       <c r="A385" t="s">
         <v>468</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C385">
@@ -10213,7 +10199,7 @@
       <c r="A386" t="s">
         <v>469</v>
       </c>
-      <c r="B386" s="10" t="s">
+      <c r="B386" s="9" t="s">
         <v>325</v>
       </c>
       <c r="C386">
@@ -10239,7 +10225,7 @@
       <c r="A387" t="s">
         <v>470</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="9" t="s">
         <v>471</v>
       </c>
       <c r="C387">
@@ -10256,7 +10242,7 @@
       <c r="A388" t="s">
         <v>472</v>
       </c>
-      <c r="B388" s="10" t="s">
+      <c r="B388" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C388">
@@ -10267,7 +10253,7 @@
       <c r="A389" t="s">
         <v>473</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C389">
@@ -10284,7 +10270,7 @@
       <c r="A390" t="s">
         <v>474</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10292,7 +10278,7 @@
       <c r="A391" t="s">
         <v>475</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="9" t="s">
         <v>476</v>
       </c>
       <c r="C391">
@@ -10318,7 +10304,7 @@
       <c r="A392" t="s">
         <v>477</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C392">
@@ -10329,7 +10315,7 @@
       <c r="A393" t="s">
         <v>478</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C393">
@@ -10355,7 +10341,7 @@
       <c r="A394" t="s">
         <v>479</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C394">
@@ -10671,7 +10657,7 @@
       <c r="H408" t="s">
         <v>9</v>
       </c>
-      <c r="J408" s="11"/>
+      <c r="J408" s="10"/>
     </row>
     <row r="409" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
@@ -10698,7 +10684,7 @@
       <c r="H409" t="s">
         <v>9</v>
       </c>
-      <c r="J409" s="11"/>
+      <c r="J409" s="10"/>
     </row>
     <row r="410" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
@@ -10707,7 +10693,7 @@
       <c r="B410" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J410" s="11"/>
+      <c r="J410" s="10"/>
     </row>
     <row r="411" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
@@ -10734,7 +10720,7 @@
       <c r="H411" t="s">
         <v>10</v>
       </c>
-      <c r="J411" s="11"/>
+      <c r="J411" s="10"/>
     </row>
     <row r="412" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
@@ -10761,7 +10747,7 @@
       <c r="H412" t="s">
         <v>10</v>
       </c>
-      <c r="J412" s="11"/>
+      <c r="J412" s="10"/>
     </row>
     <row r="413" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
@@ -10794,7 +10780,7 @@
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="1:10" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>503</v>
       </c>
@@ -10820,7 +10806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:10" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>504</v>
       </c>
@@ -10834,7 +10820,7 @@
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5" t="s">
         <v>505</v>
       </c>
@@ -10860,7 +10846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>506</v>
       </c>
@@ -10868,7 +10854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>507</v>
       </c>
@@ -10894,7 +10880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
         <v>508</v>
       </c>
@@ -11009,7 +10995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>513</v>
       </c>
@@ -11035,7 +11021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>514</v>
       </c>
@@ -11061,14 +11047,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>515</v>
       </c>
@@ -11082,12 +11068,12 @@
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>517</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -11119,7 +11105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>519</v>
       </c>
@@ -11145,7 +11131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:8" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>520</v>
       </c>
@@ -11171,7 +11157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="433" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5" t="s">
         <v>521</v>
       </c>
@@ -11247,7 +11233,7 @@
         <v>524</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C436" s="7">
         <v>1853</v>
@@ -11277,7 +11263,7 @@
         <v>525</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C437" s="7">
         <v>1853</v>
@@ -11307,7 +11293,7 @@
         <v>526</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C438" s="7">
         <v>1853</v>
@@ -11337,7 +11323,7 @@
         <v>527</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C439" s="7">
         <v>1853</v>
@@ -11367,7 +11353,7 @@
         <v>528</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C440" s="7">
         <v>1853</v>
@@ -11397,7 +11383,7 @@
         <v>529</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C441" s="7">
         <v>1853</v>
@@ -11427,7 +11413,7 @@
         <v>530</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C442" s="7">
         <v>1853</v>
@@ -11457,7 +11443,7 @@
         <v>531</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C443" s="7">
         <v>1853</v>
@@ -11487,7 +11473,7 @@
         <v>532</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C444" s="7">
         <v>1853</v>
@@ -11517,7 +11503,7 @@
         <v>533</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C445" s="7">
         <v>1853</v>
@@ -11547,7 +11533,7 @@
         <v>534</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C446" s="7">
         <v>1853</v>
@@ -11577,7 +11563,7 @@
         <v>535</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C447" s="7">
         <v>1853</v>
@@ -11607,7 +11593,7 @@
         <v>536</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C448" s="7">
         <v>1853</v>
@@ -11637,7 +11623,7 @@
         <v>537</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C449" s="7">
         <v>1853</v>
@@ -11667,7 +11653,7 @@
         <v>538</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C450" s="7">
         <v>1853</v>
@@ -11886,7 +11872,7 @@
     </row>
     <row r="459" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
-        <v>548</v>
+        <v>646</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>540</v>
@@ -11908,237 +11894,208 @@
       <c r="M459" s="7"/>
       <c r="N459" s="7"/>
     </row>
-    <row r="460" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B460" s="6" t="s">
+    <row r="460" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C460" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D460" s="7"/>
+      <c r="E460" s="7"/>
+      <c r="F460" s="7"/>
+      <c r="G460" s="7"/>
+      <c r="H460" s="7"/>
+      <c r="I460" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J460" s="8"/>
+      <c r="K460" s="7"/>
+      <c r="L460" s="7"/>
+      <c r="M460" s="7"/>
+      <c r="N460" s="7"/>
+    </row>
+    <row r="461" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C461" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D461" s="7"/>
+      <c r="E461" s="7"/>
+      <c r="F461" s="7"/>
+      <c r="G461" s="7"/>
+      <c r="H461" s="7"/>
+      <c r="I461" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J461" s="8"/>
+      <c r="K461" s="7"/>
+      <c r="L461" s="7"/>
+      <c r="M461" s="7"/>
+      <c r="N461" s="7"/>
+    </row>
+    <row r="462" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C462" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D462" s="7"/>
+      <c r="E462" s="7"/>
+      <c r="F462" s="7"/>
+      <c r="G462" s="7"/>
+      <c r="H462" s="7"/>
+      <c r="I462" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J462" s="8"/>
+      <c r="K462" s="7"/>
+      <c r="L462" s="7"/>
+      <c r="M462" s="7"/>
+      <c r="N462" s="7"/>
+    </row>
+    <row r="463" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C463" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D463" s="7"/>
+      <c r="E463" s="7"/>
+      <c r="F463" s="7"/>
+      <c r="G463" s="7"/>
+      <c r="H463" s="7"/>
+      <c r="I463" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J463" s="8"/>
+      <c r="K463" s="7"/>
+      <c r="L463" s="7"/>
+      <c r="M463" s="7"/>
+      <c r="N463" s="7"/>
+    </row>
+    <row r="464" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C464" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D464" s="7"/>
+      <c r="E464" s="7"/>
+      <c r="F464" s="7"/>
+      <c r="G464" s="7"/>
+      <c r="H464" s="7"/>
+      <c r="I464" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J464" s="8"/>
+      <c r="K464" s="7"/>
+      <c r="L464" s="7"/>
+      <c r="M464" s="7"/>
+      <c r="N464" s="7"/>
+    </row>
+    <row r="465" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C465" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D465" s="7"/>
+      <c r="E465" s="7"/>
+      <c r="F465" s="7"/>
+      <c r="G465" s="7"/>
+      <c r="H465" s="7"/>
+      <c r="I465" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J465" s="8"/>
+      <c r="K465" s="7"/>
+      <c r="L465" s="7"/>
+      <c r="M465" s="7"/>
+      <c r="N465" s="7"/>
+    </row>
+    <row r="466" spans="1:14" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C466" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D466" s="7"/>
+      <c r="E466" s="7"/>
+      <c r="F466" s="7"/>
+      <c r="G466" s="7"/>
+      <c r="H466" s="7"/>
+      <c r="I466" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J466" s="8"/>
+      <c r="K466" s="7"/>
+      <c r="L466" s="7"/>
+      <c r="M466" s="7"/>
+      <c r="N466" s="7"/>
+    </row>
+    <row r="467" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B467" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C460" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D460" s="5">
+      <c r="C467" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D467" s="5">
         <v>3</v>
       </c>
-      <c r="E460" s="5">
+      <c r="E467" s="5">
         <v>14</v>
       </c>
-      <c r="F460" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G460" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H460" s="5" t="s">
+      <c r="F467" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H467" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I460" s="5"/>
-      <c r="K460" s="5"/>
-      <c r="L460" s="5"/>
-      <c r="M460" s="5"/>
-      <c r="N460" s="5"/>
-    </row>
-    <row r="461" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C461" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D461" s="5">
-        <v>3</v>
-      </c>
-      <c r="E461" s="5">
-        <v>14</v>
-      </c>
-      <c r="F461" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G461" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H461" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I461" s="5"/>
-      <c r="K461" s="5"/>
-      <c r="L461" s="5"/>
-      <c r="M461" s="5"/>
-      <c r="N461" s="5"/>
-    </row>
-    <row r="462" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C462" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D462" s="5">
-        <v>3</v>
-      </c>
-      <c r="E462" s="5">
-        <v>15</v>
-      </c>
-      <c r="F462" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G462" s="5"/>
-      <c r="H462" s="5"/>
-      <c r="I462" s="5"/>
-      <c r="K462" s="5"/>
-      <c r="L462" s="5"/>
-      <c r="M462" s="5"/>
-      <c r="N462" s="5"/>
-    </row>
-    <row r="463" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C463" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D463" s="5">
-        <v>3</v>
-      </c>
-      <c r="E463" s="5">
-        <v>15</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G463" s="5"/>
-      <c r="H463" s="5"/>
-      <c r="I463" s="5"/>
-      <c r="K463" s="5"/>
-      <c r="L463" s="5"/>
-      <c r="M463" s="5"/>
-      <c r="N463" s="5"/>
-    </row>
-    <row r="464" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C464" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D464" s="5">
-        <v>3</v>
-      </c>
-      <c r="E464" s="5">
-        <v>16</v>
-      </c>
-      <c r="F464" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G464" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H464" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I464" s="5"/>
-      <c r="K464" s="5"/>
-      <c r="L464" s="5"/>
-      <c r="M464" s="5"/>
-      <c r="N464" s="5"/>
-    </row>
-    <row r="465" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C465" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D465" s="5">
-        <v>3</v>
-      </c>
-      <c r="E465" s="5">
-        <v>16</v>
-      </c>
-      <c r="F465" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G465" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H465" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I465" s="5"/>
-      <c r="K465" s="5"/>
-      <c r="L465" s="5"/>
-      <c r="M465" s="5"/>
-      <c r="N465" s="5"/>
-    </row>
-    <row r="466" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B466" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C466" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D466" s="5">
-        <v>3</v>
-      </c>
-      <c r="E466" s="5">
-        <v>16</v>
-      </c>
-      <c r="F466" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G466" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H466" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I466" s="5"/>
-      <c r="K466" s="5"/>
-      <c r="L466" s="5"/>
-      <c r="M466" s="5"/>
-      <c r="N466" s="5"/>
-    </row>
-    <row r="467" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C467" s="5"/>
-      <c r="D467" s="5"/>
-      <c r="E467" s="5"/>
-      <c r="F467" s="5"/>
-      <c r="G467" s="5"/>
-      <c r="H467" s="5"/>
       <c r="I467" s="5"/>
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
       <c r="M467" s="5"/>
       <c r="N467" s="5"/>
     </row>
-    <row r="468" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>487</v>
@@ -12150,7 +12107,7 @@
         <v>3</v>
       </c>
       <c r="E468" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F468" s="5" t="s">
         <v>19</v>
@@ -12167,17 +12124,25 @@
       <c r="M468" s="5"/>
       <c r="N468" s="5"/>
     </row>
-    <row r="469" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C469" s="5"/>
-      <c r="D469" s="5"/>
-      <c r="E469" s="5"/>
-      <c r="F469" s="5"/>
+        <v>551</v>
+      </c>
+      <c r="C469" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D469" s="5">
+        <v>3</v>
+      </c>
+      <c r="E469" s="5">
+        <v>15</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G469" s="5"/>
       <c r="H469" s="5"/>
       <c r="I469" s="5"/>
@@ -12186,70 +12151,70 @@
       <c r="M469" s="5"/>
       <c r="N469" s="5"/>
     </row>
-    <row r="470" spans="1:14" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B470" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C470" s="7">
-        <v>1853</v>
-      </c>
-      <c r="D470" s="7">
+    <row r="470" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C470" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D470" s="5">
         <v>3</v>
       </c>
-      <c r="E470" s="7">
-        <v>4</v>
-      </c>
-      <c r="F470" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G470" s="7"/>
-      <c r="H470" s="7"/>
-      <c r="I470" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K470" s="7"/>
-      <c r="L470" s="7"/>
-      <c r="M470" s="7"/>
-      <c r="N470" s="7"/>
-    </row>
-    <row r="471" spans="1:14" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="B471" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C471" s="7">
-        <v>1853</v>
-      </c>
-      <c r="D471" s="7">
+      <c r="E470" s="5">
+        <v>15</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="K470" s="5"/>
+      <c r="L470" s="5"/>
+      <c r="M470" s="5"/>
+      <c r="N470" s="5"/>
+    </row>
+    <row r="471" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C471" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D471" s="5">
         <v>3</v>
       </c>
-      <c r="E471" s="7">
-        <v>4</v>
-      </c>
-      <c r="F471" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G471" s="7"/>
-      <c r="H471" s="7"/>
-      <c r="I471" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K471" s="7"/>
-      <c r="L471" s="7"/>
-      <c r="M471" s="7"/>
-      <c r="N471" s="7"/>
-    </row>
-    <row r="472" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E471" s="5">
+        <v>16</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H471" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I471" s="5"/>
+      <c r="K471" s="5"/>
+      <c r="L471" s="5"/>
+      <c r="M471" s="5"/>
+      <c r="N471" s="5"/>
+    </row>
+    <row r="472" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="B472" s="10" t="s">
-        <v>563</v>
+        <v>554</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="C472" s="5">
         <v>1853</v>
@@ -12258,23 +12223,29 @@
         <v>3</v>
       </c>
       <c r="E472" s="5">
-        <v>22</v>
-      </c>
-      <c r="F472" s="5"/>
-      <c r="G472" s="5"/>
-      <c r="H472" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I472" s="5"/>
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
       <c r="M472" s="5"/>
       <c r="N472" s="5"/>
     </row>
-    <row r="473" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B473" s="10" t="s">
-        <v>563</v>
+        <v>555</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="C473" s="5">
         <v>1853</v>
@@ -12283,33 +12254,33 @@
         <v>3</v>
       </c>
       <c r="E473" s="5">
-        <v>22</v>
-      </c>
-      <c r="F473" s="5"/>
-      <c r="G473" s="5"/>
-      <c r="H473" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H473" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I473" s="5"/>
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
       <c r="M473" s="5"/>
       <c r="N473" s="5"/>
     </row>
-    <row r="474" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B474" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C474" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D474" s="5">
-        <v>4</v>
-      </c>
-      <c r="E474" s="5">
-        <v>7</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
       <c r="F474" s="5"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5"/>
@@ -12321,23 +12292,29 @@
     </row>
     <row r="475" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B475" s="10" t="s">
-        <v>563</v>
+        <v>557</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="C475" s="5">
         <v>1853</v>
       </c>
       <c r="D475" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E475" s="5">
-        <v>7</v>
-      </c>
-      <c r="F475" s="5"/>
-      <c r="G475" s="5"/>
-      <c r="H475" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H475" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I475" s="5"/>
       <c r="K475" s="5"/>
       <c r="L475" s="5"/>
@@ -12345,8 +12322,12 @@
       <c r="N475" s="5"/>
     </row>
     <row r="476" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="5"/>
-      <c r="B476" s="10"/>
+      <c r="A476" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -12359,60 +12340,80 @@
       <c r="M476" s="5"/>
       <c r="N476" s="5"/>
     </row>
-    <row r="477" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="B477" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C477" s="5">
-        <v>1852</v>
-      </c>
-      <c r="D477" s="5">
-        <v>1853</v>
-      </c>
-      <c r="E477" s="5"/>
-      <c r="F477" s="5"/>
-      <c r="G477" s="5"/>
-      <c r="H477" s="5"/>
-      <c r="I477" s="5"/>
-      <c r="K477" s="5"/>
-      <c r="L477" s="5"/>
-      <c r="M477" s="5"/>
-      <c r="N477" s="5"/>
-    </row>
-    <row r="478" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B478" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C478" s="5"/>
-      <c r="D478" s="5"/>
-      <c r="E478" s="5"/>
-      <c r="F478" s="5"/>
-      <c r="G478" s="5"/>
-      <c r="H478" s="5"/>
-      <c r="I478" s="5"/>
-      <c r="K478" s="5"/>
-      <c r="L478" s="5"/>
-      <c r="M478" s="5"/>
-      <c r="N478" s="5"/>
-    </row>
-    <row r="479" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C477" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D477" s="7">
+        <v>3</v>
+      </c>
+      <c r="E477" s="7">
+        <v>4</v>
+      </c>
+      <c r="F477" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G477" s="7"/>
+      <c r="H477" s="7"/>
+      <c r="I477" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K477" s="7"/>
+      <c r="L477" s="7"/>
+      <c r="M477" s="7"/>
+      <c r="N477" s="7"/>
+    </row>
+    <row r="478" spans="1:14" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C478" s="7">
+        <v>1853</v>
+      </c>
+      <c r="D478" s="7">
+        <v>3</v>
+      </c>
+      <c r="E478" s="7">
+        <v>4</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G478" s="7"/>
+      <c r="H478" s="7"/>
+      <c r="I478" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K478" s="7"/>
+      <c r="L478" s="7"/>
+      <c r="M478" s="7"/>
+      <c r="N478" s="7"/>
+    </row>
+    <row r="479" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>571</v>
+        <v>561</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C479" s="5">
         <v>1853</v>
       </c>
-      <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
+      <c r="D479" s="5">
+        <v>3</v>
+      </c>
+      <c r="E479" s="5">
+        <v>22</v>
+      </c>
       <c r="F479" s="5"/>
       <c r="G479" s="5"/>
       <c r="H479" s="5"/>
@@ -12424,16 +12425,20 @@
     </row>
     <row r="480" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>571</v>
+        <v>563</v>
+      </c>
+      <c r="B480" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C480" s="5">
         <v>1853</v>
       </c>
-      <c r="D480" s="5"/>
-      <c r="E480" s="5"/>
+      <c r="D480" s="5">
+        <v>3</v>
+      </c>
+      <c r="E480" s="5">
+        <v>22</v>
+      </c>
       <c r="F480" s="5"/>
       <c r="G480" s="5"/>
       <c r="H480" s="5"/>
@@ -12445,16 +12450,20 @@
     </row>
     <row r="481" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C481" s="5">
         <v>1853</v>
       </c>
-      <c r="D481" s="5"/>
-      <c r="E481" s="5"/>
+      <c r="D481" s="5">
+        <v>4</v>
+      </c>
+      <c r="E481" s="5">
+        <v>7</v>
+      </c>
       <c r="F481" s="5"/>
       <c r="G481" s="5"/>
       <c r="H481" s="5"/>
@@ -12466,16 +12475,20 @@
     </row>
     <row r="482" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C482" s="5">
         <v>1853</v>
       </c>
-      <c r="D482" s="5"/>
-      <c r="E482" s="5"/>
+      <c r="D482" s="5">
+        <v>4</v>
+      </c>
+      <c r="E482" s="5">
+        <v>7</v>
+      </c>
       <c r="F482" s="5"/>
       <c r="G482" s="5"/>
       <c r="H482" s="5"/>
@@ -12486,15 +12499,9 @@
       <c r="N482" s="5"/>
     </row>
     <row r="483" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C483" s="5">
-        <v>1853</v>
-      </c>
+      <c r="A483" s="5"/>
+      <c r="B483" s="9"/>
+      <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
@@ -12508,15 +12515,17 @@
     </row>
     <row r="484" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>571</v>
+        <v>566</v>
+      </c>
+      <c r="B484" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="C484" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D484" s="5"/>
+        <v>1852</v>
+      </c>
+      <c r="D484" s="5">
+        <v>1853</v>
+      </c>
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
       <c r="G484" s="5"/>
@@ -12529,20 +12538,14 @@
     </row>
     <row r="485" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B485" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C485" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D485" s="5">
-        <v>11</v>
-      </c>
-      <c r="E485" s="5">
-        <v>30</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
       <c r="F485" s="5"/>
       <c r="G485" s="5"/>
       <c r="H485" s="5"/>
@@ -12554,20 +12557,16 @@
     </row>
     <row r="486" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B486" s="10" t="s">
-        <v>578</v>
+        <v>569</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="C486" s="5">
         <v>1853</v>
       </c>
-      <c r="D486" s="5">
-        <v>11</v>
-      </c>
-      <c r="E486" s="5">
-        <v>30</v>
-      </c>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
       <c r="F486" s="5"/>
       <c r="G486" s="5"/>
       <c r="H486" s="5"/>
@@ -12579,10 +12578,10 @@
     </row>
     <row r="487" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C487" s="5">
         <v>1853</v>
@@ -12600,12 +12599,14 @@
     </row>
     <row r="488" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C488" s="5"/>
+        <v>570</v>
+      </c>
+      <c r="C488" s="5">
+        <v>1853</v>
+      </c>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
@@ -12619,26 +12620,20 @@
     </row>
     <row r="489" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B489" s="10" t="s">
-        <v>584</v>
+        <v>573</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="C489" s="5">
         <v>1853</v>
       </c>
-      <c r="D489" s="5">
-        <v>3</v>
-      </c>
-      <c r="E489" s="5">
-        <v>4</v>
-      </c>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
       <c r="F489" s="5"/>
       <c r="G489" s="5"/>
       <c r="H489" s="5"/>
-      <c r="I489" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="I489" s="5"/>
       <c r="K489" s="5"/>
       <c r="L489" s="5"/>
       <c r="M489" s="5"/>
@@ -12646,26 +12641,20 @@
     </row>
     <row r="490" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B490" s="10" t="s">
-        <v>584</v>
+        <v>574</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="C490" s="5">
         <v>1853</v>
       </c>
-      <c r="D490" s="5">
-        <v>3</v>
-      </c>
-      <c r="E490" s="5">
-        <v>4</v>
-      </c>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
       <c r="H490" s="5"/>
-      <c r="I490" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="I490" s="5"/>
       <c r="K490" s="5"/>
       <c r="L490" s="5"/>
       <c r="M490" s="5"/>
@@ -12673,20 +12662,16 @@
     </row>
     <row r="491" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="C491" s="5">
         <v>1853</v>
       </c>
-      <c r="D491" s="5">
-        <v>3</v>
-      </c>
-      <c r="E491" s="5">
-        <v>22</v>
-      </c>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
       <c r="H491" s="5"/>
@@ -12698,19 +12683,19 @@
     </row>
     <row r="492" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>587</v>
+        <v>576</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C492" s="5">
         <v>1853</v>
       </c>
       <c r="D492" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E492" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
@@ -12723,16 +12708,16 @@
     </row>
     <row r="493" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>590</v>
+        <v>578</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C493" s="5">
         <v>1853</v>
       </c>
       <c r="D493" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E493" s="5">
         <v>30</v>
@@ -12748,20 +12733,16 @@
     </row>
     <row r="494" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C494" s="5">
         <v>1853</v>
       </c>
-      <c r="D494" s="5">
-        <v>3</v>
-      </c>
-      <c r="E494" s="5">
-        <v>30</v>
-      </c>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
       <c r="H494" s="5"/>
@@ -12773,20 +12754,14 @@
     </row>
     <row r="495" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B495" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C495" s="5">
-        <v>1853</v>
-      </c>
-      <c r="D495" s="5">
-        <v>4</v>
-      </c>
-      <c r="E495" s="5">
+        <v>581</v>
+      </c>
+      <c r="B495" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
       <c r="H495" s="5"/>
@@ -12798,24 +12773,26 @@
     </row>
     <row r="496" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B496" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="C496" s="5">
         <v>1853</v>
       </c>
       <c r="D496" s="5">
+        <v>3</v>
+      </c>
+      <c r="E496" s="5">
         <v>4</v>
-      </c>
-      <c r="E496" s="5">
-        <v>12</v>
       </c>
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
       <c r="H496" s="5"/>
-      <c r="I496" s="5"/>
+      <c r="I496" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="K496" s="5"/>
       <c r="L496" s="5"/>
       <c r="M496" s="5"/>
@@ -12823,24 +12800,26 @@
     </row>
     <row r="497" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B497" s="10" t="s">
-        <v>578</v>
+        <v>584</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="C497" s="5">
         <v>1853</v>
       </c>
       <c r="D497" s="5">
+        <v>3</v>
+      </c>
+      <c r="E497" s="5">
         <v>4</v>
-      </c>
-      <c r="E497" s="5">
-        <v>13</v>
       </c>
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
       <c r="H497" s="5"/>
-      <c r="I497" s="5"/>
+      <c r="I497" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="K497" s="5"/>
       <c r="L497" s="5"/>
       <c r="M497" s="5"/>
@@ -12848,19 +12827,19 @@
     </row>
     <row r="498" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B498" s="10" t="s">
-        <v>578</v>
+        <v>585</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="C498" s="5">
         <v>1853</v>
       </c>
       <c r="D498" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E498" s="5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
@@ -12873,19 +12852,19 @@
     </row>
     <row r="499" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B499" s="10" t="s">
-        <v>578</v>
+        <v>587</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="C499" s="5">
         <v>1853</v>
       </c>
       <c r="D499" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E499" s="5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
@@ -12896,21 +12875,21 @@
       <c r="M499" s="5"/>
       <c r="N499" s="5"/>
     </row>
-    <row r="500" spans="1:14" s="11" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B500" s="10" t="s">
-        <v>578</v>
+        <v>588</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="C500" s="5">
         <v>1853</v>
       </c>
       <c r="D500" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E500" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
@@ -12923,19 +12902,19 @@
     </row>
     <row r="501" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="B501" s="10" t="s">
-        <v>578</v>
+        <v>590</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="C501" s="5">
         <v>1853</v>
       </c>
       <c r="D501" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E501" s="5">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F501" s="5"/>
       <c r="G501" s="5"/>
@@ -12948,10 +12927,10 @@
     </row>
     <row r="502" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B502" s="10" t="s">
-        <v>578</v>
+        <v>591</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C502" s="5">
         <v>1853</v>
@@ -12960,7 +12939,7 @@
         <v>4</v>
       </c>
       <c r="E502" s="5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
@@ -12973,10 +12952,10 @@
     </row>
     <row r="503" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B503" s="10" t="s">
-        <v>578</v>
+        <v>592</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C503" s="5">
         <v>1853</v>
@@ -12985,7 +12964,7 @@
         <v>4</v>
       </c>
       <c r="E503" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
@@ -12998,10 +12977,10 @@
     </row>
     <row r="504" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B504" s="10" t="s">
-        <v>578</v>
+        <v>593</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C504" s="5">
         <v>1853</v>
@@ -13010,7 +12989,7 @@
         <v>4</v>
       </c>
       <c r="E504" s="5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
@@ -13023,10 +13002,10 @@
     </row>
     <row r="505" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B505" s="10" t="s">
-        <v>603</v>
+        <v>594</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C505" s="5">
         <v>1853</v>
@@ -13035,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="E505" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
@@ -13048,10 +13027,10 @@
     </row>
     <row r="506" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B506" s="10" t="s">
-        <v>603</v>
+        <v>595</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C506" s="5">
         <v>1853</v>
@@ -13060,7 +13039,7 @@
         <v>4</v>
       </c>
       <c r="E506" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
@@ -13071,12 +13050,12 @@
       <c r="M506" s="5"/>
       <c r="N506" s="5"/>
     </row>
-    <row r="507" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B507" s="10" t="s">
-        <v>603</v>
+        <v>596</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C507" s="5">
         <v>1853</v>
@@ -13085,7 +13064,7 @@
         <v>4</v>
       </c>
       <c r="E507" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F507" s="5"/>
       <c r="G507" s="5"/>
@@ -13098,10 +13077,10 @@
     </row>
     <row r="508" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="B508" s="10" t="s">
-        <v>603</v>
+        <v>597</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C508" s="5">
         <v>1853</v>
@@ -13110,7 +13089,7 @@
         <v>4</v>
       </c>
       <c r="E508" s="5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
@@ -13123,10 +13102,10 @@
     </row>
     <row r="509" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B509" s="10" t="s">
-        <v>603</v>
+        <v>598</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C509" s="5">
         <v>1853</v>
@@ -13135,7 +13114,7 @@
         <v>4</v>
       </c>
       <c r="E509" s="5">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F509" s="5"/>
       <c r="G509" s="5"/>
@@ -13148,10 +13127,10 @@
     </row>
     <row r="510" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="B510" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C510" s="5">
         <v>1853</v>
@@ -13160,7 +13139,7 @@
         <v>4</v>
       </c>
       <c r="E510" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
@@ -13173,16 +13152,20 @@
     </row>
     <row r="511" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B511" s="10" t="s">
-        <v>610</v>
+        <v>600</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C511" s="5">
         <v>1853</v>
       </c>
-      <c r="D511" s="5"/>
-      <c r="E511" s="5"/>
+      <c r="D511" s="5">
+        <v>4</v>
+      </c>
+      <c r="E511" s="5">
+        <v>20</v>
+      </c>
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
       <c r="H511" s="5"/>
@@ -13194,16 +13177,20 @@
     </row>
     <row r="512" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B512" s="10" t="s">
-        <v>610</v>
+        <v>601</v>
+      </c>
+      <c r="B512" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C512" s="5">
         <v>1853</v>
       </c>
-      <c r="D512" s="5"/>
-      <c r="E512" s="5"/>
+      <c r="D512" s="5">
+        <v>4</v>
+      </c>
+      <c r="E512" s="5">
+        <v>21</v>
+      </c>
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
       <c r="H512" s="5"/>
@@ -13215,19 +13202,19 @@
     </row>
     <row r="513" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B513" s="10" t="s">
         <v>603</v>
       </c>
+      <c r="B513" s="9" t="s">
+        <v>602</v>
+      </c>
       <c r="C513" s="5">
         <v>1853</v>
       </c>
       <c r="D513" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E513" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
@@ -13240,19 +13227,19 @@
     </row>
     <row r="514" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B514" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+      <c r="B514" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C514" s="5">
         <v>1853</v>
       </c>
       <c r="D514" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E514" s="5">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
@@ -13265,19 +13252,19 @@
     </row>
     <row r="515" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B515" s="10" t="s">
-        <v>615</v>
+        <v>605</v>
+      </c>
+      <c r="B515" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C515" s="5">
         <v>1853</v>
       </c>
       <c r="D515" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E515" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
@@ -13290,19 +13277,19 @@
     </row>
     <row r="516" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B516" s="10" t="s">
-        <v>563</v>
+        <v>606</v>
+      </c>
+      <c r="B516" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C516" s="5">
         <v>1853</v>
       </c>
       <c r="D516" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E516" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F516" s="5"/>
       <c r="G516" s="5"/>
@@ -13315,19 +13302,19 @@
     </row>
     <row r="517" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B517" s="10" t="s">
-        <v>563</v>
+        <v>607</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C517" s="5">
         <v>1853</v>
       </c>
       <c r="D517" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E517" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F517" s="5"/>
       <c r="G517" s="5"/>
@@ -13340,20 +13327,16 @@
     </row>
     <row r="518" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B518" s="10" t="s">
-        <v>563</v>
+        <v>608</v>
+      </c>
+      <c r="B518" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="C518" s="5">
         <v>1853</v>
       </c>
-      <c r="D518" s="5">
-        <v>5</v>
-      </c>
-      <c r="E518" s="5">
-        <v>19</v>
-      </c>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
       <c r="H518" s="5"/>
@@ -13365,20 +13348,16 @@
     </row>
     <row r="519" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B519" s="10" t="s">
-        <v>563</v>
+        <v>610</v>
+      </c>
+      <c r="B519" s="9" t="s">
+        <v>609</v>
       </c>
       <c r="C519" s="5">
         <v>1853</v>
       </c>
-      <c r="D519" s="5">
-        <v>5</v>
-      </c>
-      <c r="E519" s="5">
-        <v>19</v>
-      </c>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5"/>
       <c r="F519" s="5"/>
       <c r="G519" s="5"/>
       <c r="H519" s="5"/>
@@ -13390,10 +13369,10 @@
     </row>
     <row r="520" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B520" s="10" t="s">
-        <v>563</v>
+        <v>611</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C520" s="5">
         <v>1853</v>
@@ -13402,7 +13381,7 @@
         <v>5</v>
       </c>
       <c r="E520" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
@@ -13415,10 +13394,10 @@
     </row>
     <row r="521" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B521" s="10" t="s">
-        <v>563</v>
+        <v>612</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>602</v>
       </c>
       <c r="C521" s="5">
         <v>1853</v>
@@ -13427,7 +13406,7 @@
         <v>5</v>
       </c>
       <c r="E521" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
@@ -13440,10 +13419,10 @@
     </row>
     <row r="522" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B522" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>614</v>
       </c>
       <c r="C522" s="5">
         <v>1853</v>
@@ -13454,12 +13433,8 @@
       <c r="E522" s="5">
         <v>7</v>
       </c>
-      <c r="F522" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G522" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F522" s="5"/>
+      <c r="G522" s="5"/>
       <c r="H522" s="5"/>
       <c r="I522" s="5"/>
       <c r="K522" s="5"/>
@@ -13469,10 +13444,10 @@
     </row>
     <row r="523" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B523" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C523" s="5">
         <v>1853</v>
@@ -13481,14 +13456,10 @@
         <v>5</v>
       </c>
       <c r="E523" s="5">
-        <v>7</v>
-      </c>
-      <c r="F523" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G523" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F523" s="5"/>
+      <c r="G523" s="5"/>
       <c r="H523" s="5"/>
       <c r="I523" s="5"/>
       <c r="K523" s="5"/>
@@ -13498,19 +13469,19 @@
     </row>
     <row r="524" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B524" s="10" t="s">
-        <v>578</v>
+        <v>616</v>
+      </c>
+      <c r="B524" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C524" s="5">
         <v>1853</v>
       </c>
       <c r="D524" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E524" s="5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
@@ -13523,19 +13494,19 @@
     </row>
     <row r="525" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B525" s="10" t="s">
-        <v>578</v>
+        <v>617</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C525" s="5">
         <v>1853</v>
       </c>
       <c r="D525" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E525" s="5">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F525" s="5"/>
       <c r="G525" s="5"/>
@@ -13548,19 +13519,19 @@
     </row>
     <row r="526" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B526" s="10" t="s">
-        <v>628</v>
+        <v>618</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C526" s="5">
         <v>1853</v>
       </c>
       <c r="D526" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E526" s="5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F526" s="5"/>
       <c r="G526" s="5"/>
@@ -13573,19 +13544,19 @@
     </row>
     <row r="527" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B527" s="10" t="s">
-        <v>628</v>
+        <v>619</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C527" s="5">
         <v>1853</v>
       </c>
       <c r="D527" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E527" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F527" s="5"/>
       <c r="G527" s="5"/>
@@ -13598,19 +13569,19 @@
     </row>
     <row r="528" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="B528" s="10" t="s">
-        <v>578</v>
+        <v>620</v>
+      </c>
+      <c r="B528" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="C528" s="5">
         <v>1853</v>
       </c>
       <c r="D528" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E528" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F528" s="5"/>
       <c r="G528" s="5"/>
@@ -13623,22 +13594,26 @@
     </row>
     <row r="529" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="B529" s="10" t="s">
-        <v>578</v>
+        <v>621</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>622</v>
       </c>
       <c r="C529" s="5">
         <v>1853</v>
       </c>
       <c r="D529" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E529" s="5">
-        <v>30</v>
-      </c>
-      <c r="F529" s="5"/>
-      <c r="G529" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H529" s="5"/>
       <c r="I529" s="5"/>
       <c r="K529" s="5"/>
@@ -13648,22 +13623,26 @@
     </row>
     <row r="530" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B530" s="10" t="s">
-        <v>578</v>
+        <v>623</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>622</v>
       </c>
       <c r="C530" s="5">
         <v>1853</v>
       </c>
       <c r="D530" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E530" s="5">
         <v>7</v>
       </c>
-      <c r="F530" s="5"/>
-      <c r="G530" s="5"/>
+      <c r="F530" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H530" s="5"/>
       <c r="I530" s="5"/>
       <c r="K530" s="5"/>
@@ -13673,19 +13652,19 @@
     </row>
     <row r="531" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B531" s="10" t="s">
-        <v>578</v>
+        <v>624</v>
+      </c>
+      <c r="B531" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C531" s="5">
         <v>1853</v>
       </c>
       <c r="D531" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E531" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F531" s="5"/>
       <c r="G531" s="5"/>
@@ -13698,19 +13677,19 @@
     </row>
     <row r="532" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="B532" s="10" t="s">
-        <v>578</v>
+        <v>625</v>
+      </c>
+      <c r="B532" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C532" s="5">
         <v>1853</v>
       </c>
       <c r="D532" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E532" s="5">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F532" s="5"/>
       <c r="G532" s="5"/>
@@ -13723,19 +13702,19 @@
     </row>
     <row r="533" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B533" s="10" t="s">
-        <v>578</v>
+        <v>626</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C533" s="5">
         <v>1853</v>
       </c>
       <c r="D533" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E533" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F533" s="5"/>
       <c r="G533" s="5"/>
@@ -13748,19 +13727,19 @@
     </row>
     <row r="534" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B534" s="10" t="s">
-        <v>578</v>
+        <v>628</v>
+      </c>
+      <c r="B534" s="9" t="s">
+        <v>627</v>
       </c>
       <c r="C534" s="5">
         <v>1853</v>
       </c>
       <c r="D534" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E534" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F534" s="5"/>
       <c r="G534" s="5"/>
@@ -13773,19 +13752,19 @@
     </row>
     <row r="535" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="B535" s="10" t="s">
-        <v>578</v>
+        <v>629</v>
+      </c>
+      <c r="B535" s="9" t="s">
+        <v>577</v>
       </c>
       <c r="C535" s="5">
         <v>1853</v>
       </c>
       <c r="D535" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E535" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F535" s="5"/>
       <c r="G535" s="5"/>
@@ -13797,11 +13776,21 @@
       <c r="N535" s="5"/>
     </row>
     <row r="536" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="5"/>
-      <c r="B536" s="6"/>
-      <c r="C536" s="5"/>
-      <c r="D536" s="5"/>
-      <c r="E536" s="5"/>
+      <c r="A536" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B536" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C536" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D536" s="5">
+        <v>11</v>
+      </c>
+      <c r="E536" s="5">
+        <v>30</v>
+      </c>
       <c r="F536" s="5"/>
       <c r="G536" s="5"/>
       <c r="H536" s="5"/>
@@ -13812,11 +13801,21 @@
       <c r="N536" s="5"/>
     </row>
     <row r="537" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="5"/>
-      <c r="B537" s="6"/>
-      <c r="C537" s="5"/>
-      <c r="D537" s="5"/>
-      <c r="E537" s="5"/>
+      <c r="A537" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C537" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D537" s="5">
+        <v>12</v>
+      </c>
+      <c r="E537" s="5">
+        <v>7</v>
+      </c>
       <c r="F537" s="5"/>
       <c r="G537" s="5"/>
       <c r="H537" s="5"/>
@@ -13827,11 +13826,21 @@
       <c r="N537" s="5"/>
     </row>
     <row r="538" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="5"/>
-      <c r="B538" s="6"/>
-      <c r="C538" s="5"/>
-      <c r="D538" s="5"/>
-      <c r="E538" s="5"/>
+      <c r="A538" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C538" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D538" s="5">
+        <v>12</v>
+      </c>
+      <c r="E538" s="5">
+        <v>7</v>
+      </c>
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
       <c r="H538" s="5"/>
@@ -13842,11 +13851,21 @@
       <c r="N538" s="5"/>
     </row>
     <row r="539" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="5"/>
-      <c r="B539" s="6"/>
-      <c r="C539" s="5"/>
-      <c r="D539" s="5"/>
-      <c r="E539" s="5"/>
+      <c r="A539" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C539" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D539" s="5">
+        <v>12</v>
+      </c>
+      <c r="E539" s="5">
+        <v>8</v>
+      </c>
       <c r="F539" s="5"/>
       <c r="G539" s="5"/>
       <c r="H539" s="5"/>
@@ -13857,11 +13876,21 @@
       <c r="N539" s="5"/>
     </row>
     <row r="540" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="5"/>
-      <c r="B540" s="6"/>
-      <c r="C540" s="5"/>
-      <c r="D540" s="5"/>
-      <c r="E540" s="5"/>
+      <c r="A540" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C540" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D540" s="5">
+        <v>12</v>
+      </c>
+      <c r="E540" s="5">
+        <v>8</v>
+      </c>
       <c r="F540" s="5"/>
       <c r="G540" s="5"/>
       <c r="H540" s="5"/>
@@ -13872,11 +13901,21 @@
       <c r="N540" s="5"/>
     </row>
     <row r="541" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="5"/>
-      <c r="B541" s="6"/>
-      <c r="C541" s="5"/>
-      <c r="D541" s="5"/>
-      <c r="E541" s="5"/>
+      <c r="A541" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C541" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D541" s="5">
+        <v>12</v>
+      </c>
+      <c r="E541" s="5">
+        <v>10</v>
+      </c>
       <c r="F541" s="5"/>
       <c r="G541" s="5"/>
       <c r="H541" s="5"/>
@@ -13887,11 +13926,21 @@
       <c r="N541" s="5"/>
     </row>
     <row r="542" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="5"/>
-      <c r="B542" s="6"/>
-      <c r="C542" s="5"/>
-      <c r="D542" s="5"/>
-      <c r="E542" s="5"/>
+      <c r="A542" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C542" s="5">
+        <v>1853</v>
+      </c>
+      <c r="D542" s="5">
+        <v>12</v>
+      </c>
+      <c r="E542" s="5">
+        <v>10</v>
+      </c>
       <c r="F542" s="5"/>
       <c r="G542" s="5"/>
       <c r="H542" s="5"/>
@@ -13901,330 +13950,435 @@
       <c r="M542" s="5"/>
       <c r="N542" s="5"/>
     </row>
-    <row r="543" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="5"/>
       <c r="B543" s="6"/>
-      <c r="J543" s="11"/>
-    </row>
-    <row r="544" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
+      <c r="E543" s="5"/>
+      <c r="F543" s="5"/>
+      <c r="G543" s="5"/>
+      <c r="H543" s="5"/>
+      <c r="I543" s="5"/>
+      <c r="K543" s="5"/>
+      <c r="L543" s="5"/>
+      <c r="M543" s="5"/>
+      <c r="N543" s="5"/>
+    </row>
+    <row r="544" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="5"/>
       <c r="B544" s="6"/>
-      <c r="J544" s="11"/>
-    </row>
-    <row r="545" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B545" s="10"/>
-      <c r="J545" s="11"/>
-    </row>
-    <row r="546" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B546" s="10"/>
-      <c r="J546" s="11"/>
-    </row>
-    <row r="547" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
+      <c r="E544" s="5"/>
+      <c r="F544" s="5"/>
+      <c r="G544" s="5"/>
+      <c r="H544" s="5"/>
+      <c r="I544" s="5"/>
+      <c r="K544" s="5"/>
+      <c r="L544" s="5"/>
+      <c r="M544" s="5"/>
+      <c r="N544" s="5"/>
+    </row>
+    <row r="545" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5"/>
+      <c r="B545" s="6"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="F545" s="5"/>
+      <c r="G545" s="5"/>
+      <c r="H545" s="5"/>
+      <c r="I545" s="5"/>
+      <c r="K545" s="5"/>
+      <c r="L545" s="5"/>
+      <c r="M545" s="5"/>
+      <c r="N545" s="5"/>
+    </row>
+    <row r="546" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5"/>
+      <c r="B546" s="6"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
+      <c r="E546" s="5"/>
+      <c r="F546" s="5"/>
+      <c r="G546" s="5"/>
+      <c r="H546" s="5"/>
+      <c r="I546" s="5"/>
+      <c r="K546" s="5"/>
+      <c r="L546" s="5"/>
+      <c r="M546" s="5"/>
+      <c r="N546" s="5"/>
+    </row>
+    <row r="547" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5"/>
       <c r="B547" s="6"/>
-      <c r="J547" s="11"/>
-    </row>
-    <row r="548" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
+      <c r="E547" s="5"/>
+      <c r="F547" s="5"/>
+      <c r="G547" s="5"/>
+      <c r="H547" s="5"/>
+      <c r="I547" s="5"/>
+      <c r="K547" s="5"/>
+      <c r="L547" s="5"/>
+      <c r="M547" s="5"/>
+      <c r="N547" s="5"/>
+    </row>
+    <row r="548" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5"/>
       <c r="B548" s="6"/>
-      <c r="J548" s="11"/>
-    </row>
-    <row r="549" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B549" s="10"/>
-      <c r="J549" s="11"/>
-    </row>
-    <row r="550" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B550" s="10"/>
-    </row>
-    <row r="551" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B551" s="10"/>
-    </row>
-    <row r="552" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B552" s="10"/>
-      <c r="J552" s="11"/>
-    </row>
-    <row r="553" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B553" s="10"/>
-      <c r="J553" s="11"/>
-    </row>
-    <row r="554" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B554" s="10"/>
-      <c r="J554" s="11"/>
-    </row>
-    <row r="555" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B555" s="10"/>
-      <c r="J555" s="11"/>
-    </row>
-    <row r="556" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B556" s="10"/>
-    </row>
-    <row r="557" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B557" s="10"/>
-    </row>
-    <row r="558" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B558" s="10"/>
-      <c r="J558" s="11"/>
-    </row>
-    <row r="559" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B559" s="10"/>
-      <c r="J559" s="11"/>
-    </row>
-    <row r="560" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="5"/>
-      <c r="B560" s="10"/>
-      <c r="C560" s="5"/>
-      <c r="D560" s="5"/>
-      <c r="E560" s="5"/>
-      <c r="F560" s="5"/>
-    </row>
-    <row r="561" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="5"/>
-      <c r="B561" s="10"/>
-      <c r="C561" s="5"/>
-      <c r="D561" s="5"/>
-      <c r="E561" s="5"/>
-      <c r="F561" s="5"/>
-    </row>
-    <row r="562" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="5"/>
-      <c r="B562" s="10"/>
-      <c r="C562" s="5"/>
-      <c r="D562" s="5"/>
-      <c r="E562" s="5"/>
-      <c r="F562" s="5"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
+      <c r="E548" s="5"/>
+      <c r="F548" s="5"/>
+      <c r="G548" s="5"/>
+      <c r="H548" s="5"/>
+      <c r="I548" s="5"/>
+      <c r="K548" s="5"/>
+      <c r="L548" s="5"/>
+      <c r="M548" s="5"/>
+      <c r="N548" s="5"/>
+    </row>
+    <row r="549" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5"/>
+      <c r="B549" s="6"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+      <c r="G549" s="5"/>
+      <c r="H549" s="5"/>
+      <c r="I549" s="5"/>
+      <c r="K549" s="5"/>
+      <c r="L549" s="5"/>
+      <c r="M549" s="5"/>
+      <c r="N549" s="5"/>
+    </row>
+    <row r="550" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B550" s="6"/>
+      <c r="J550" s="10"/>
+    </row>
+    <row r="551" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B551" s="6"/>
+      <c r="J551" s="10"/>
+    </row>
+    <row r="552" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B552" s="9"/>
+      <c r="J552" s="10"/>
+    </row>
+    <row r="553" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B553" s="9"/>
+      <c r="J553" s="10"/>
+    </row>
+    <row r="554" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B554" s="6"/>
+      <c r="J554" s="10"/>
+    </row>
+    <row r="555" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B555" s="6"/>
+      <c r="J555" s="10"/>
+    </row>
+    <row r="556" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B556" s="9"/>
+      <c r="J556" s="10"/>
+    </row>
+    <row r="557" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B557" s="9"/>
+    </row>
+    <row r="558" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B558" s="9"/>
+    </row>
+    <row r="559" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B559" s="9"/>
+      <c r="J559" s="10"/>
+    </row>
+    <row r="560" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B560" s="9"/>
+      <c r="J560" s="10"/>
+    </row>
+    <row r="561" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B561" s="9"/>
+      <c r="J561" s="10"/>
+    </row>
+    <row r="562" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B562" s="9"/>
+      <c r="J562" s="10"/>
     </row>
     <row r="563" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="5"/>
-      <c r="B563" s="10"/>
-      <c r="C563" s="5"/>
-      <c r="D563" s="5"/>
-      <c r="E563" s="5"/>
-      <c r="F563" s="5"/>
+      <c r="B563" s="9"/>
     </row>
     <row r="564" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="5"/>
-      <c r="B564" s="10"/>
-      <c r="C564" s="5"/>
-      <c r="D564" s="5"/>
-      <c r="E564" s="5"/>
-      <c r="F564" s="5"/>
-    </row>
-    <row r="565" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="5"/>
-      <c r="B565" s="10"/>
-      <c r="C565" s="5"/>
-      <c r="D565" s="5"/>
-      <c r="E565" s="5"/>
-      <c r="F565" s="5"/>
-    </row>
-    <row r="566" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="5"/>
-      <c r="B566" s="10"/>
-      <c r="C566" s="5"/>
-      <c r="D566" s="5"/>
-      <c r="E566" s="5"/>
-      <c r="F566" s="5"/>
+      <c r="B564" s="9"/>
+    </row>
+    <row r="565" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B565" s="9"/>
+      <c r="J565" s="10"/>
+    </row>
+    <row r="566" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B566" s="9"/>
+      <c r="J566" s="10"/>
     </row>
     <row r="567" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
-      <c r="B567" s="10"/>
+      <c r="B567" s="9"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
     <row r="568" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="10"/>
+      <c r="A568" s="5"/>
+      <c r="B568" s="9"/>
       <c r="C568" s="5"/>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+      <c r="F568" s="5"/>
     </row>
     <row r="569" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B569" s="10"/>
+      <c r="A569" s="5"/>
+      <c r="B569" s="9"/>
       <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
+      <c r="E569" s="5"/>
+      <c r="F569" s="5"/>
     </row>
     <row r="570" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B570" s="10"/>
+      <c r="A570" s="5"/>
+      <c r="B570" s="9"/>
       <c r="C570" s="5"/>
+      <c r="D570" s="5"/>
+      <c r="E570" s="5"/>
+      <c r="F570" s="5"/>
     </row>
     <row r="571" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B571" s="10"/>
+      <c r="A571" s="5"/>
+      <c r="B571" s="9"/>
       <c r="C571" s="5"/>
-    </row>
-    <row r="572" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B572" s="10"/>
-      <c r="J572" s="11"/>
-    </row>
-    <row r="573" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="10"/>
-      <c r="J573" s="11"/>
+      <c r="D571" s="5"/>
+      <c r="E571" s="5"/>
+      <c r="F571" s="5"/>
+    </row>
+    <row r="572" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="5"/>
+      <c r="B572" s="9"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="5"/>
+      <c r="E572" s="5"/>
+      <c r="F572" s="5"/>
+    </row>
+    <row r="573" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="5"/>
+      <c r="B573" s="9"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="5"/>
+      <c r="E573" s="5"/>
+      <c r="F573" s="5"/>
     </row>
     <row r="574" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="10"/>
+      <c r="A574" s="5"/>
+      <c r="B574" s="9"/>
       <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+      <c r="F574" s="5"/>
     </row>
     <row r="575" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B575" s="10"/>
+      <c r="B575" s="9"/>
       <c r="C575" s="5"/>
     </row>
     <row r="576" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B576" s="10"/>
+      <c r="B576" s="9"/>
       <c r="C576" s="5"/>
     </row>
-    <row r="577" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B577" s="10"/>
+    <row r="577" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B577" s="9"/>
       <c r="C577" s="5"/>
     </row>
-    <row r="578" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="5"/>
-      <c r="B578" s="10"/>
+    <row r="578" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B578" s="9"/>
       <c r="C578" s="5"/>
-      <c r="D578" s="5"/>
-      <c r="E578" s="5"/>
-      <c r="F578" s="5"/>
-    </row>
-    <row r="579" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="5"/>
-      <c r="B579" s="10"/>
-      <c r="C579" s="5"/>
-      <c r="D579" s="5"/>
-      <c r="E579" s="5"/>
-      <c r="F579" s="5"/>
-    </row>
-    <row r="580" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="5"/>
-      <c r="B580" s="10"/>
-      <c r="C580" s="5"/>
-    </row>
-    <row r="581" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="5"/>
-      <c r="B581" s="10"/>
+    </row>
+    <row r="579" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B579" s="9"/>
+      <c r="J579" s="10"/>
+    </row>
+    <row r="580" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B580" s="9"/>
+      <c r="J580" s="10"/>
+    </row>
+    <row r="581" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B581" s="9"/>
       <c r="C581" s="5"/>
     </row>
-    <row r="582" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="5"/>
-      <c r="B582" s="10"/>
+    <row r="582" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B582" s="9"/>
       <c r="C582" s="5"/>
     </row>
-    <row r="583" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="5"/>
-      <c r="B583" s="10"/>
+    <row r="583" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B583" s="9"/>
       <c r="C583" s="5"/>
     </row>
-    <row r="584" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="5"/>
-      <c r="B584" s="10"/>
+    <row r="584" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B584" s="9"/>
       <c r="C584" s="5"/>
     </row>
-    <row r="585" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
-      <c r="B585" s="10"/>
+      <c r="B585" s="9"/>
       <c r="C585" s="5"/>
-    </row>
-    <row r="586" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D585" s="5"/>
+      <c r="E585" s="5"/>
+      <c r="F585" s="5"/>
+    </row>
+    <row r="586" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
-      <c r="B586" s="10"/>
+      <c r="B586" s="9"/>
       <c r="C586" s="5"/>
-    </row>
-    <row r="587" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D586" s="5"/>
+      <c r="E586" s="5"/>
+      <c r="F586" s="5"/>
+    </row>
+    <row r="587" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
-      <c r="B587" s="10"/>
+      <c r="B587" s="9"/>
       <c r="C587" s="5"/>
-      <c r="D587" s="5"/>
-      <c r="E587" s="5"/>
-      <c r="F587" s="5"/>
-    </row>
-    <row r="588" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
-      <c r="B588" s="10"/>
+      <c r="B588" s="9"/>
       <c r="C588" s="5"/>
-      <c r="D588" s="5"/>
-      <c r="E588" s="5"/>
-      <c r="F588" s="5"/>
-    </row>
-    <row r="589" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
-      <c r="B589" s="10"/>
+      <c r="B589" s="9"/>
       <c r="C589" s="5"/>
     </row>
-    <row r="590" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
-      <c r="B590" s="10"/>
+      <c r="B590" s="9"/>
       <c r="C590" s="5"/>
     </row>
-    <row r="591" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
-      <c r="B591" s="10"/>
+      <c r="B591" s="9"/>
       <c r="C591" s="5"/>
     </row>
-    <row r="592" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
-      <c r="B592" s="10"/>
+      <c r="B592" s="9"/>
       <c r="C592" s="5"/>
     </row>
-    <row r="593" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
-      <c r="B593" s="10"/>
+      <c r="B593" s="9"/>
       <c r="C593" s="5"/>
     </row>
-    <row r="594" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
-      <c r="B594" s="10"/>
+      <c r="B594" s="9"/>
       <c r="C594" s="5"/>
-    </row>
-    <row r="595" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D594" s="5"/>
+      <c r="E594" s="5"/>
+      <c r="F594" s="5"/>
+    </row>
+    <row r="595" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
-      <c r="B595" s="10"/>
+      <c r="B595" s="9"/>
       <c r="C595" s="5"/>
-    </row>
-    <row r="596" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D595" s="5"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="5"/>
+    </row>
+    <row r="596" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
-      <c r="B596" s="10"/>
+      <c r="B596" s="9"/>
       <c r="C596" s="5"/>
     </row>
-    <row r="597" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
-      <c r="B597" s="10"/>
+      <c r="B597" s="9"/>
       <c r="C597" s="5"/>
     </row>
-    <row r="598" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
-      <c r="B598" s="10"/>
+      <c r="B598" s="9"/>
       <c r="C598" s="5"/>
     </row>
-    <row r="599" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
-      <c r="B599" s="10"/>
+      <c r="B599" s="9"/>
       <c r="C599" s="5"/>
     </row>
-    <row r="600" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
-      <c r="B600" s="10"/>
+      <c r="B600" s="9"/>
       <c r="C600" s="5"/>
     </row>
-    <row r="601" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
-      <c r="B601" s="10"/>
+      <c r="B601" s="9"/>
       <c r="C601" s="5"/>
     </row>
-    <row r="602" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
-      <c r="B602" s="10"/>
+      <c r="B602" s="9"/>
       <c r="C602" s="5"/>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
-      <c r="B603" s="11"/>
+      <c r="B603" s="9"/>
       <c r="C603" s="5"/>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
-      <c r="B604" s="11"/>
+      <c r="B604" s="9"/>
       <c r="C604" s="5"/>
     </row>
-    <row r="605" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
-      <c r="B605" s="10"/>
+      <c r="B605" s="9"/>
       <c r="C605" s="5"/>
     </row>
-    <row r="606" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
-      <c r="B606" s="10"/>
+      <c r="B606" s="9"/>
       <c r="C606" s="5"/>
+    </row>
+    <row r="607" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="5"/>
+      <c r="B607" s="9"/>
+      <c r="C607" s="5"/>
+    </row>
+    <row r="608" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="5"/>
+      <c r="B608" s="9"/>
+      <c r="C608" s="5"/>
+    </row>
+    <row r="609" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="5"/>
+      <c r="B609" s="9"/>
+      <c r="C609" s="5"/>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="5"/>
+      <c r="B610" s="10"/>
+      <c r="C610" s="5"/>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="5"/>
+      <c r="B611" s="10"/>
+      <c r="C611" s="5"/>
+    </row>
+    <row r="612" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="5"/>
+      <c r="B612" s="9"/>
+      <c r="C612" s="5"/>
+    </row>
+    <row r="613" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="5"/>
+      <c r="B613" s="9"/>
+      <c r="C613" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
